--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.54097546517566</v>
+        <v>3.541999</v>
       </c>
       <c r="N2">
-        <v>3.54097546517566</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O2">
-        <v>0.362180266881437</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P2">
-        <v>0.362180266881437</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q2">
-        <v>2.183070904736319</v>
+        <v>2.40257334169</v>
       </c>
       <c r="R2">
-        <v>2.183070904736319</v>
+        <v>9.610293366759999</v>
       </c>
       <c r="S2">
-        <v>0.001570478307698025</v>
+        <v>0.001430399256599166</v>
       </c>
       <c r="T2">
-        <v>0.001570478307698025</v>
+        <v>0.0007858377213786635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.583938746742756</v>
+        <v>0.365435</v>
       </c>
       <c r="N3">
-        <v>0.583938746742756</v>
+        <v>1.096305</v>
       </c>
       <c r="O3">
-        <v>0.05972678806098748</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P3">
-        <v>0.05972678806098748</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q3">
-        <v>0.3600080544751985</v>
+        <v>0.24787821485</v>
       </c>
       <c r="R3">
-        <v>0.3600080544751985</v>
+        <v>1.4872692891</v>
       </c>
       <c r="S3">
-        <v>0.000258986017780379</v>
+        <v>0.0001475771033067249</v>
       </c>
       <c r="T3">
-        <v>0.000258986017780379</v>
+        <v>0.0001216146338742664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.04870612724997</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N4">
-        <v>3.04870612724997</v>
+        <v>1.874634</v>
       </c>
       <c r="O4">
-        <v>0.3118296666186277</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P4">
-        <v>0.3118296666186277</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q4">
-        <v>1.879578581931965</v>
+        <v>0.4238609961799999</v>
       </c>
       <c r="R4">
-        <v>1.879578581931965</v>
+        <v>2.54316597708</v>
       </c>
       <c r="S4">
-        <v>0.001352149114412069</v>
+        <v>0.0002523504457977469</v>
       </c>
       <c r="T4">
-        <v>0.001352149114412069</v>
+        <v>0.0002079557491375589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.60321122502843</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N5">
-        <v>2.60321122502843</v>
+        <v>1.134587</v>
       </c>
       <c r="O5">
-        <v>0.2662632784389478</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P5">
-        <v>0.2662632784389478</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q5">
-        <v>1.604923485105434</v>
+        <v>0.2565339026566666</v>
       </c>
       <c r="R5">
-        <v>1.604923485105434</v>
+        <v>1.53920341594</v>
       </c>
       <c r="S5">
-        <v>0.001154565118982077</v>
+        <v>0.0001527303650986423</v>
       </c>
       <c r="T5">
-        <v>0.001154565118982077</v>
+        <v>0.0001258613092191519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.54097546517566</v>
+        <v>3.353617</v>
       </c>
       <c r="N6">
-        <v>3.54097546517566</v>
+        <v>10.060851</v>
       </c>
       <c r="O6">
-        <v>0.362180266881437</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P6">
-        <v>0.362180266881437</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q6">
-        <v>358.9826915827381</v>
+        <v>2.27479194727</v>
       </c>
       <c r="R6">
-        <v>358.9826915827381</v>
+        <v>13.64875168362</v>
       </c>
       <c r="S6">
-        <v>0.2582483824719546</v>
+        <v>0.001354323155855867</v>
       </c>
       <c r="T6">
-        <v>0.2582483824719546</v>
+        <v>0.001116064152611315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H7">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I7">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J7">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.583938746742756</v>
+        <v>2.6445295</v>
       </c>
       <c r="N7">
-        <v>0.583938746742756</v>
+        <v>5.289059</v>
       </c>
       <c r="O7">
-        <v>0.05972678806098748</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P7">
-        <v>0.05972678806098748</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q7">
-        <v>59.1994790946021</v>
+        <v>1.793810805145</v>
       </c>
       <c r="R7">
-        <v>59.1994790946021</v>
+        <v>7.17524322058</v>
       </c>
       <c r="S7">
-        <v>0.04258748423763398</v>
+        <v>0.001067965584082481</v>
       </c>
       <c r="T7">
-        <v>0.04258748423763398</v>
+        <v>0.0005867226491025707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.04870612724997</v>
+        <v>3.541999</v>
       </c>
       <c r="N8">
-        <v>3.04870612724997</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O8">
-        <v>0.3118296666186277</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P8">
-        <v>0.3118296666186277</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q8">
-        <v>309.0766208826831</v>
+        <v>382.8540225435166</v>
       </c>
       <c r="R8">
-        <v>309.0766208826831</v>
+        <v>2297.1241352611</v>
       </c>
       <c r="S8">
-        <v>0.2223464787422876</v>
+        <v>0.2279364794945381</v>
       </c>
       <c r="T8">
-        <v>0.2223464787422876</v>
+        <v>0.1878368044852003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.60321122502843</v>
+        <v>0.365435</v>
       </c>
       <c r="N9">
-        <v>2.60321122502843</v>
+        <v>1.096305</v>
       </c>
       <c r="O9">
-        <v>0.2662632784389478</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P9">
-        <v>0.2662632784389478</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q9">
-        <v>263.9125239668228</v>
+        <v>39.49980215358333</v>
       </c>
       <c r="R9">
-        <v>263.9125239668228</v>
+        <v>355.4982193822501</v>
       </c>
       <c r="S9">
-        <v>0.1898559012080241</v>
+        <v>0.023516654686827</v>
       </c>
       <c r="T9">
-        <v>0.1898559012080241</v>
+        <v>0.02906923857702212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.54097546517566</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N10">
-        <v>3.54097546517566</v>
+        <v>1.874634</v>
       </c>
       <c r="O10">
-        <v>0.362180266881437</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P10">
-        <v>0.362180266881437</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q10">
-        <v>47.43828949649476</v>
+        <v>67.54294845903333</v>
       </c>
       <c r="R10">
-        <v>47.43828949649476</v>
+        <v>607.8865361313</v>
       </c>
       <c r="S10">
-        <v>0.03412660781970462</v>
+        <v>0.04021245952739907</v>
       </c>
       <c r="T10">
-        <v>0.03412660781970462</v>
+        <v>0.04970713714759786</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.583938746742756</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N11">
-        <v>0.583938746742756</v>
+        <v>1.134587</v>
       </c>
       <c r="O11">
-        <v>0.05972678806098748</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P11">
-        <v>0.05972678806098748</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q11">
-        <v>7.823001200836901</v>
+        <v>40.87910027412777</v>
       </c>
       <c r="R11">
-        <v>7.823001200836901</v>
+        <v>367.91190246715</v>
       </c>
       <c r="S11">
-        <v>0.005627784997892177</v>
+        <v>0.02433783544831318</v>
       </c>
       <c r="T11">
-        <v>0.005627784997892177</v>
+        <v>0.03008431065204281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J12">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.04870612724997</v>
+        <v>3.353617</v>
       </c>
       <c r="N12">
-        <v>3.04870612724997</v>
+        <v>10.060851</v>
       </c>
       <c r="O12">
-        <v>0.3118296666186277</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P12">
-        <v>0.3118296666186277</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q12">
-        <v>40.84337925426628</v>
+        <v>362.4918467002167</v>
       </c>
       <c r="R12">
-        <v>40.84337925426628</v>
+        <v>3262.426620301951</v>
       </c>
       <c r="S12">
-        <v>0.02938229857433618</v>
+        <v>0.2158136274327109</v>
       </c>
       <c r="T12">
-        <v>0.02938229857433618</v>
+        <v>0.2667699937580068</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H13">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J13">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60321122502843</v>
+        <v>2.6445295</v>
       </c>
       <c r="N13">
-        <v>2.60321122502843</v>
+        <v>5.289059</v>
       </c>
       <c r="O13">
-        <v>0.2662632784389478</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P13">
-        <v>0.2662632784389478</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q13">
-        <v>34.87510402936307</v>
+        <v>285.8467088245916</v>
       </c>
       <c r="R13">
-        <v>34.87510402936307</v>
+        <v>1715.08025294755</v>
       </c>
       <c r="S13">
-        <v>0.02508878398681335</v>
+        <v>0.1701820763217187</v>
       </c>
       <c r="T13">
-        <v>0.02508878398681335</v>
+        <v>0.140242831984663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H14">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I14">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J14">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.54097546517566</v>
+        <v>3.541999</v>
       </c>
       <c r="N14">
-        <v>3.54097546517566</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O14">
-        <v>0.362180266881437</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P14">
-        <v>0.362180266881437</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q14">
-        <v>89.17484577013938</v>
+        <v>62.28012192800766</v>
       </c>
       <c r="R14">
-        <v>89.17484577013938</v>
+        <v>373.680731568046</v>
       </c>
       <c r="S14">
-        <v>0.06415144857204556</v>
+        <v>0.03707917613206504</v>
       </c>
       <c r="T14">
-        <v>0.06415144857204556</v>
+        <v>0.03055603022840361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H15">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I15">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J15">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.583938746742756</v>
+        <v>0.365435</v>
       </c>
       <c r="N15">
-        <v>0.583938746742756</v>
+        <v>1.096305</v>
       </c>
       <c r="O15">
-        <v>0.05972678806098748</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P15">
-        <v>0.05972678806098748</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q15">
-        <v>14.70573523937437</v>
+        <v>6.425562614998333</v>
       </c>
       <c r="R15">
-        <v>14.70573523937437</v>
+        <v>57.83006353498501</v>
       </c>
       <c r="S15">
-        <v>0.01057915166295407</v>
+        <v>0.003825531495017697</v>
       </c>
       <c r="T15">
-        <v>0.01057915166295407</v>
+        <v>0.004728788562553239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H16">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I16">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J16">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.04870612724997</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N16">
-        <v>3.04870612724997</v>
+        <v>1.874634</v>
       </c>
       <c r="O16">
-        <v>0.3118296666186277</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P16">
-        <v>0.3118296666186277</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q16">
-        <v>76.77768495425263</v>
+        <v>10.98743337593533</v>
       </c>
       <c r="R16">
-        <v>76.77768495425263</v>
+        <v>98.88690038341799</v>
       </c>
       <c r="S16">
-        <v>0.05523306113160385</v>
+        <v>0.00654149293183102</v>
       </c>
       <c r="T16">
-        <v>0.05523306113160385</v>
+        <v>0.008086023340378296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.1836949019119</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H17">
-        <v>25.1836949019119</v>
+        <v>52.749977</v>
       </c>
       <c r="I17">
-        <v>0.1771257421737063</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J17">
-        <v>0.1771257421737063</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.60321122502843</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N17">
-        <v>2.60321122502843</v>
+        <v>1.134587</v>
       </c>
       <c r="O17">
-        <v>0.2662632784389478</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P17">
-        <v>0.2662632784389478</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q17">
-        <v>65.5584772563483</v>
+        <v>6.649937572722111</v>
       </c>
       <c r="R17">
-        <v>65.5584772563483</v>
+        <v>59.849438154499</v>
       </c>
       <c r="S17">
-        <v>0.04716208080710284</v>
+        <v>0.003959115667936974</v>
       </c>
       <c r="T17">
-        <v>0.04716208080710284</v>
+        <v>0.004893913672583443</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H18">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I18">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J18">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.54097546517566</v>
+        <v>3.353617</v>
       </c>
       <c r="N18">
-        <v>3.54097546517566</v>
+        <v>10.060851</v>
       </c>
       <c r="O18">
-        <v>0.362180266881437</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P18">
-        <v>0.362180266881437</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q18">
-        <v>4.175776950634401</v>
+        <v>58.96773987226968</v>
       </c>
       <c r="R18">
-        <v>4.175776950634401</v>
+        <v>530.7096588504271</v>
       </c>
       <c r="S18">
-        <v>0.003004010132941072</v>
+        <v>0.03510711195076215</v>
       </c>
       <c r="T18">
-        <v>0.003004010132941072</v>
+        <v>0.04339635150651718</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H19">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I19">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J19">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.583938746742756</v>
+        <v>2.6445295</v>
       </c>
       <c r="N19">
-        <v>0.583938746742756</v>
+        <v>5.289059</v>
       </c>
       <c r="O19">
-        <v>0.05972678806098748</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P19">
-        <v>0.05972678806098748</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q19">
-        <v>0.6886232291671006</v>
+        <v>46.49962343360717</v>
       </c>
       <c r="R19">
-        <v>0.6886232291671006</v>
+        <v>278.997740601643</v>
       </c>
       <c r="S19">
-        <v>0.0004953883271668276</v>
+        <v>0.02768407758357411</v>
       </c>
       <c r="T19">
-        <v>0.0004953883271668276</v>
+        <v>0.02281376232514608</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.17927305390896</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H20">
-        <v>1.17927305390896</v>
+        <v>77.988344</v>
       </c>
       <c r="I20">
-        <v>0.008294240210288602</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J20">
-        <v>0.008294240210288602</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.04870612724997</v>
+        <v>3.541999</v>
       </c>
       <c r="N20">
-        <v>3.04870612724997</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O20">
-        <v>0.3118296666186277</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P20">
-        <v>0.3118296666186277</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q20">
-        <v>3.59525698515303</v>
+        <v>92.07821215321866</v>
       </c>
       <c r="R20">
-        <v>3.59525698515303</v>
+        <v>552.4692729193119</v>
       </c>
       <c r="S20">
-        <v>0.002586390159629111</v>
+        <v>0.05481980671620156</v>
       </c>
       <c r="T20">
-        <v>0.002586390159629111</v>
+        <v>0.04517564427994233</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.17927305390896</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H21">
-        <v>1.17927305390896</v>
+        <v>77.988344</v>
       </c>
       <c r="I21">
-        <v>0.008294240210288602</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J21">
-        <v>0.008294240210288602</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.60321122502843</v>
+        <v>0.365435</v>
       </c>
       <c r="N21">
-        <v>2.60321122502843</v>
+        <v>1.096305</v>
       </c>
       <c r="O21">
-        <v>0.2662632784389478</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P21">
-        <v>0.2662632784389478</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q21">
-        <v>3.069896851309362</v>
+        <v>9.499890163213333</v>
       </c>
       <c r="R21">
-        <v>3.069896851309362</v>
+        <v>85.49901146892</v>
       </c>
       <c r="S21">
-        <v>0.002208451590551591</v>
+        <v>0.005655867228459161</v>
       </c>
       <c r="T21">
-        <v>0.002208451590551591</v>
+        <v>0.006991290045864238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H22">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I22">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J22">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.54097546517566</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N22">
-        <v>3.54097546517566</v>
+        <v>1.874634</v>
       </c>
       <c r="O22">
-        <v>0.362180266881437</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P22">
-        <v>0.362180266881437</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q22">
-        <v>1.5003549017727</v>
+        <v>16.24440014067733</v>
       </c>
       <c r="R22">
-        <v>1.5003549017727</v>
+        <v>146.199601266096</v>
       </c>
       <c r="S22">
-        <v>0.001079339577093135</v>
+        <v>0.009671287648925535</v>
       </c>
       <c r="T22">
-        <v>0.001079339577093135</v>
+        <v>0.01195480274543914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H23">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I23">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J23">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.583938746742756</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N23">
-        <v>0.583938746742756</v>
+        <v>1.134587</v>
       </c>
       <c r="O23">
-        <v>0.05972678806098748</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P23">
-        <v>0.05972678806098748</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q23">
-        <v>0.2474220365621875</v>
+        <v>9.831617917103111</v>
       </c>
       <c r="R23">
-        <v>0.2474220365621875</v>
+        <v>88.48456125392799</v>
       </c>
       <c r="S23">
-        <v>0.0001779928175600492</v>
+        <v>0.00585336510472523</v>
       </c>
       <c r="T23">
-        <v>0.0001779928175600492</v>
+        <v>0.007235419704614107</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H24">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I24">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J24">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.04870612724997</v>
+        <v>3.353617</v>
       </c>
       <c r="N24">
-        <v>3.04870612724997</v>
+        <v>10.060851</v>
       </c>
       <c r="O24">
-        <v>0.3118296666186277</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P24">
-        <v>0.3118296666186277</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q24">
-        <v>1.291774322377871</v>
+        <v>87.18101208008268</v>
       </c>
       <c r="R24">
-        <v>1.291774322377871</v>
+        <v>784.6291087207441</v>
       </c>
       <c r="S24">
-        <v>0.0009292888963589567</v>
+        <v>0.05190420317458241</v>
       </c>
       <c r="T24">
-        <v>0.0009292888963589567</v>
+        <v>0.06415945147493013</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.423712312194253</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H25">
-        <v>0.423712312194253</v>
+        <v>77.988344</v>
       </c>
       <c r="I25">
-        <v>0.002980117018485899</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J25">
-        <v>0.002980117018485899</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.60321122502843</v>
+        <v>2.6445295</v>
       </c>
       <c r="N25">
-        <v>2.60321122502843</v>
+        <v>5.289059</v>
       </c>
       <c r="O25">
-        <v>0.2662632784389478</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P25">
-        <v>0.2662632784389478</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q25">
-        <v>1.10301264728683</v>
+        <v>68.74749212138266</v>
       </c>
       <c r="R25">
-        <v>1.10301264728683</v>
+        <v>412.484952728296</v>
       </c>
       <c r="S25">
-        <v>0.0007934957274737577</v>
+        <v>0.04092959824248769</v>
       </c>
       <c r="T25">
-        <v>0.0007934957274737577</v>
+        <v>0.03372906767613817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.181792</v>
+      </c>
+      <c r="H26">
+        <v>3.545376</v>
+      </c>
+      <c r="I26">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J26">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.541999</v>
+      </c>
+      <c r="N26">
+        <v>7.083997999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.3246962407904732</v>
+      </c>
+      <c r="P26">
+        <v>0.266923476966389</v>
+      </c>
+      <c r="Q26">
+        <v>4.185906082208</v>
+      </c>
+      <c r="R26">
+        <v>25.115436493248</v>
+      </c>
+      <c r="S26">
+        <v>0.002492126606204894</v>
+      </c>
+      <c r="T26">
+        <v>0.002053699781273017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.181792</v>
+      </c>
+      <c r="H27">
+        <v>3.545376</v>
+      </c>
+      <c r="I27">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J27">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.365435</v>
+      </c>
+      <c r="N27">
+        <v>1.096305</v>
+      </c>
+      <c r="O27">
+        <v>0.03349954947849127</v>
+      </c>
+      <c r="P27">
+        <v>0.04130852979004752</v>
+      </c>
+      <c r="Q27">
+        <v>0.43186815952</v>
+      </c>
+      <c r="R27">
+        <v>3.886813435680001</v>
+      </c>
+      <c r="S27">
+        <v>0.0002571176012016055</v>
+      </c>
+      <c r="T27">
+        <v>0.0003178263656636429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.181792</v>
+      </c>
+      <c r="H28">
+        <v>3.545376</v>
+      </c>
+      <c r="I28">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J28">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6248779999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.874634</v>
+      </c>
+      <c r="O28">
+        <v>0.05728277663338396</v>
+      </c>
+      <c r="P28">
+        <v>0.07063579426750397</v>
+      </c>
+      <c r="Q28">
+        <v>0.7384758213759999</v>
+      </c>
+      <c r="R28">
+        <v>6.646282392384</v>
+      </c>
+      <c r="S28">
+        <v>0.000439659946101651</v>
+      </c>
+      <c r="T28">
+        <v>0.0005434693002125297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.181792</v>
+      </c>
+      <c r="H29">
+        <v>3.545376</v>
+      </c>
+      <c r="I29">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J29">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.3781956666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.134587</v>
+      </c>
+      <c r="O29">
+        <v>0.03466932408787059</v>
+      </c>
+      <c r="P29">
+        <v>0.04275098707832277</v>
+      </c>
+      <c r="Q29">
+        <v>0.4469486133013333</v>
+      </c>
+      <c r="R29">
+        <v>4.022537519712</v>
+      </c>
+      <c r="S29">
+        <v>0.0002660959201996944</v>
+      </c>
+      <c r="T29">
+        <v>0.0003289245809689964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.181792</v>
+      </c>
+      <c r="H30">
+        <v>3.545376</v>
+      </c>
+      <c r="I30">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J30">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.353617</v>
+      </c>
+      <c r="N30">
+        <v>10.060851</v>
+      </c>
+      <c r="O30">
+        <v>0.3074271994291993</v>
+      </c>
+      <c r="P30">
+        <v>0.3790906392351849</v>
+      </c>
+      <c r="Q30">
+        <v>3.963277741664</v>
+      </c>
+      <c r="R30">
+        <v>35.669499674976</v>
+      </c>
+      <c r="S30">
+        <v>0.002359582301610203</v>
+      </c>
+      <c r="T30">
+        <v>0.00291670995645685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.181792</v>
+      </c>
+      <c r="H31">
+        <v>3.545376</v>
+      </c>
+      <c r="I31">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J31">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.6445295</v>
+      </c>
+      <c r="N31">
+        <v>5.289059</v>
+      </c>
+      <c r="O31">
+        <v>0.2424249095805814</v>
+      </c>
+      <c r="P31">
+        <v>0.1992905726625519</v>
+      </c>
+      <c r="Q31">
+        <v>3.125283806864</v>
+      </c>
+      <c r="R31">
+        <v>18.751702841184</v>
+      </c>
+      <c r="S31">
+        <v>0.001860673119287647</v>
+      </c>
+      <c r="T31">
+        <v>0.001533334610122713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.444929</v>
+      </c>
+      <c r="H32">
+        <v>0.889858</v>
+      </c>
+      <c r="I32">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J32">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.541999</v>
+      </c>
+      <c r="N32">
+        <v>7.083997999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.3246962407904732</v>
+      </c>
+      <c r="P32">
+        <v>0.266923476966389</v>
+      </c>
+      <c r="Q32">
+        <v>1.575938073071</v>
+      </c>
+      <c r="R32">
+        <v>6.303752292284</v>
+      </c>
+      <c r="S32">
+        <v>0.0009382525848644579</v>
+      </c>
+      <c r="T32">
+        <v>0.0005154604701910444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.444929</v>
+      </c>
+      <c r="H33">
+        <v>0.889858</v>
+      </c>
+      <c r="I33">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J33">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.365435</v>
+      </c>
+      <c r="N33">
+        <v>1.096305</v>
+      </c>
+      <c r="O33">
+        <v>0.03349954947849127</v>
+      </c>
+      <c r="P33">
+        <v>0.04130852979004752</v>
+      </c>
+      <c r="Q33">
+        <v>0.162592629115</v>
+      </c>
+      <c r="R33">
+        <v>0.9755557746900001</v>
+      </c>
+      <c r="S33">
+        <v>9.680136367908156E-05</v>
+      </c>
+      <c r="T33">
+        <v>7.977160507001738E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.444929</v>
+      </c>
+      <c r="H34">
+        <v>0.889858</v>
+      </c>
+      <c r="I34">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J34">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.6248779999999999</v>
+      </c>
+      <c r="N34">
+        <v>1.874634</v>
+      </c>
+      <c r="O34">
+        <v>0.05728277663338396</v>
+      </c>
+      <c r="P34">
+        <v>0.07063579426750397</v>
+      </c>
+      <c r="Q34">
+        <v>0.278026343662</v>
+      </c>
+      <c r="R34">
+        <v>1.668158061972</v>
+      </c>
+      <c r="S34">
+        <v>0.0001655261333289289</v>
+      </c>
+      <c r="T34">
+        <v>0.0001364059847385782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.444929</v>
+      </c>
+      <c r="H35">
+        <v>0.889858</v>
+      </c>
+      <c r="I35">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J35">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3781956666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.134587</v>
+      </c>
+      <c r="O35">
+        <v>0.03466932408787059</v>
+      </c>
+      <c r="P35">
+        <v>0.04275098707832277</v>
+      </c>
+      <c r="Q35">
+        <v>0.1682702197743333</v>
+      </c>
+      <c r="R35">
+        <v>1.009621318646</v>
+      </c>
+      <c r="S35">
+        <v>0.0001001815815968714</v>
+      </c>
+      <c r="T35">
+        <v>8.255715889426374E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.444929</v>
+      </c>
+      <c r="H36">
+        <v>0.889858</v>
+      </c>
+      <c r="I36">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J36">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.353617</v>
+      </c>
+      <c r="N36">
+        <v>10.060851</v>
+      </c>
+      <c r="O36">
+        <v>0.3074271994291993</v>
+      </c>
+      <c r="P36">
+        <v>0.3790906392351849</v>
+      </c>
+      <c r="Q36">
+        <v>1.492121458193</v>
+      </c>
+      <c r="R36">
+        <v>8.952728749158002</v>
+      </c>
+      <c r="S36">
+        <v>0.0008883514136778099</v>
+      </c>
+      <c r="T36">
+        <v>0.0007320683866627348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.444929</v>
+      </c>
+      <c r="H37">
+        <v>0.889858</v>
+      </c>
+      <c r="I37">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J37">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.6445295</v>
+      </c>
+      <c r="N37">
+        <v>5.289059</v>
+      </c>
+      <c r="O37">
+        <v>0.2424249095805814</v>
+      </c>
+      <c r="P37">
+        <v>0.1992905726625519</v>
+      </c>
+      <c r="Q37">
+        <v>1.1766278659055</v>
+      </c>
+      <c r="R37">
+        <v>4.706511463622</v>
+      </c>
+      <c r="S37">
+        <v>0.0007005187294308419</v>
+      </c>
+      <c r="T37">
+        <v>0.0003848534173793069</v>
       </c>
     </row>
   </sheetData>
